--- a/CodeSystem-bc-license-status-class-code-system.xlsx
+++ b/CodeSystem-bc-license-status-class-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T17:05:36+00:00</t>
+    <t>2022-12-20T21:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-class-code-system.xlsx
+++ b/CodeSystem-bc-license-status-class-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T21:28:56+00:00</t>
+    <t>2022-12-20T23:28:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-class-code-system.xlsx
+++ b/CodeSystem-bc-license-status-class-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T23:28:16+00:00</t>
+    <t>2022-12-20T23:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-class-code-system.xlsx
+++ b/CodeSystem-bc-license-status-class-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T23:39:21+00:00</t>
+    <t>2023-01-17T22:49:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-class-code-system.xlsx
+++ b/CodeSystem-bc-license-status-class-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T22:49:54+00:00</t>
+    <t>2023-01-23T22:02:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-license-status-class-code-system.xlsx
+++ b/CodeSystem-bc-license-status-class-code-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T22:02:59+00:00</t>
+    <t>2023-01-24T00:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
